--- a/Assets/Editor/Configs/测试文件.xlsx
+++ b/Assets/Editor/Configs/测试文件.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ActionTree.CCC</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>fs</t>
   </si>
 </sst>
 </file>
@@ -132,7 +129,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -440,9 +437,6 @@
       <c r="A15" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C15" s="0" t="s">
         <v>10</v>
       </c>
@@ -462,9 +456,6 @@
     <row r="16">
       <c r="A16" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>14</v>
@@ -506,9 +497,6 @@
       <c r="A18" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="C18" s="0" t="s">
         <v>10</v>
       </c>
@@ -545,17 +533,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
   </sheetData>
   <headerFooter/>
 </worksheet>
